--- a/Ph_CipComm_FengZhuang/bin/Debug/net6.0/HGFZData.xlsx
+++ b/Ph_CipComm_FengZhuang/bin/Debug/net6.0/HGFZData.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12405" uniqueCount="6354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12479" uniqueCount="6354">
   <si>
     <t xml:space="preserve">采集方式</t>
   </si>
